--- a/data/physicalFlowSubtype_lookup_Feb92025.xlsx
+++ b/data/physicalFlowSubtype_lookup_Feb92025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/lade8828_colorado_edu/Documents/Documents/GitHub/BCCAch7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{9ECCCE85-31DD-2D45-84C4-19B19EBDF38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF0BA816-D46F-8942-A692-3C1279625F79}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{9ECCCE85-31DD-2D45-84C4-19B19EBDF38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4103736-E305-6946-9B12-78DF41CCDEE7}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1440" windowWidth="30240" windowHeight="17940" xr2:uid="{62AF613F-2DB4-6241-AD38-7A0640646F4C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{62AF613F-2DB4-6241-AD38-7A0640646F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="physicalFlowSubtype_lookup_Fina" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="160">
   <si>
     <t>Citation</t>
   </si>
@@ -1064,12 +1064,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
@@ -1077,9 +1076,9 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1457,15 +1456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55EBBF6-1DC5-4642-BF09-969404B44967}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="6" customWidth="1"/>
     <col min="4" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
@@ -1478,394 +1477,394 @@
     <col min="17" max="17" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="13"/>
+      <c r="P1" s="12"/>
       <c r="Q1" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>151</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>162</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>101</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>105</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>157</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>168</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>50</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>51</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>21</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>91</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>93</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>129</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>134</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>129</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>135</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>34</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>93</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>96</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>93</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>97</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>111</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>115</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>92</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>94</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1892,243 +1891,239 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>85</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>87</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>185</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>196</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>139</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>145</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>104</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>108</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>188</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>199</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>211</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>222</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>217</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>228</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>109</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>113</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>165</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>176</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2136,20 +2131,19 @@
       <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>180</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>191</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
         <v>59</v>
       </c>
       <c r="H25" t="s">
@@ -2166,20 +2160,19 @@
       <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>208</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>219</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
         <v>67</v>
       </c>
       <c r="H26" t="s">
@@ -2196,20 +2189,19 @@
       <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>23</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>23</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
         <v>68</v>
       </c>
       <c r="H27" t="s">
@@ -2219,623 +2211,623 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>31</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>31</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>172</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>183</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="E29"/>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>118</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>122</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>191</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>202</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>146</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>156</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" t="s">
         <v>152</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>173</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>184</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>8</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>170</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>181</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>203</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>214</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>214</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>225</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>112</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>116</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M38" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>175</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>186</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>205</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>216</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>186</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>197</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="2">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2">
-        <v>7</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>166</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>177</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>200</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>211</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>194</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>205</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
         <v>59</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>130</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>136</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>19</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>19</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="F48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>123</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>128</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>193</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>204</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2843,16 +2835,16 @@
       <c r="A54" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>67</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>68</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="1" t="s">
         <v>7</v>
       </c>
@@ -2863,358 +2855,230 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>67</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>69</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>29</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>29</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="E57" s="7"/>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>181</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>192</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="2" t="s">
+      <c r="E58" s="7"/>
+      <c r="F58" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>108</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>112</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
         <v>59</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>107</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>111</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="9">
+        <v>37</v>
+      </c>
+      <c r="D61" s="9">
+        <v>37</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C62" s="9">
         <v>37</v>
       </c>
-      <c r="D61" s="10">
-        <v>37</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" s="10" t="s">
+      <c r="D62" s="9">
+        <v>38</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K62" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M62" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="10">
-        <v>37</v>
-      </c>
-      <c r="D62" s="10">
-        <v>38</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
